--- a/ReportWebSite/Reports1NF/Templates/FreeProzoro.xlsx
+++ b/ReportWebSite/Reports1NF/Templates/FreeProzoro.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DKVSOURCESFINALEDITION_v20\ReportWebSite\Reports1NF\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F02A888-DE0D-4212-BFF2-E87DCCA5F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CB1CB5-3C20-4C4B-82A0-354DCDEA0858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -1108,9 +1108,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96BC1CC4-7EA6-41C8-95E7-38251AA6D534}">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:NV156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1118,15 +1118,400 @@
   <cols>
     <col min="1" max="1" width="58.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="100.5703125" style="1" customWidth="1"/>
+    <col min="3" max="386" width="68.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+    </row>
+    <row r="2" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1535,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,7 +1543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1174,7 +1559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1190,7 +1575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1198,7 +1583,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1591,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1222,7 +1607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1230,11 +1615,395 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B16" s="2"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+      <c r="AO16"/>
+      <c r="AP16"/>
+      <c r="AQ16"/>
+      <c r="AR16"/>
+      <c r="AS16"/>
+      <c r="AT16"/>
+      <c r="AU16"/>
+      <c r="AV16"/>
+      <c r="AW16"/>
+      <c r="AX16"/>
+      <c r="AY16"/>
+      <c r="AZ16"/>
+      <c r="BA16"/>
+      <c r="BB16"/>
+      <c r="BC16"/>
+      <c r="BD16"/>
+      <c r="BE16"/>
+      <c r="BF16"/>
+      <c r="BG16"/>
+      <c r="BH16"/>
+      <c r="BI16"/>
+      <c r="BJ16"/>
+      <c r="BK16"/>
+      <c r="BL16"/>
+      <c r="BM16"/>
+      <c r="BN16"/>
+      <c r="BO16"/>
+      <c r="BP16"/>
+      <c r="BQ16"/>
+      <c r="BR16"/>
+      <c r="BS16"/>
+      <c r="BT16"/>
+      <c r="BU16"/>
+      <c r="BV16"/>
+      <c r="BW16"/>
+      <c r="BX16"/>
+      <c r="BY16"/>
+      <c r="BZ16"/>
+      <c r="CA16"/>
+      <c r="CB16"/>
+      <c r="CC16"/>
+      <c r="CD16"/>
+      <c r="CE16"/>
+      <c r="CF16"/>
+      <c r="CG16"/>
+      <c r="CH16"/>
+      <c r="CI16"/>
+      <c r="CJ16"/>
+      <c r="CK16"/>
+      <c r="CL16"/>
+      <c r="CM16"/>
+      <c r="CN16"/>
+      <c r="CO16"/>
+      <c r="CP16"/>
+      <c r="CQ16"/>
+      <c r="CR16"/>
+      <c r="CS16"/>
+      <c r="CT16"/>
+      <c r="CU16"/>
+      <c r="CV16"/>
+      <c r="CW16"/>
+      <c r="CX16"/>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+      <c r="DP16"/>
+      <c r="DQ16"/>
+      <c r="DR16"/>
+      <c r="DS16"/>
+      <c r="DT16"/>
+      <c r="DU16"/>
+      <c r="DV16"/>
+      <c r="DW16"/>
+      <c r="DX16"/>
+      <c r="DY16"/>
+      <c r="DZ16"/>
+      <c r="EA16"/>
+      <c r="EB16"/>
+      <c r="EC16"/>
+      <c r="ED16"/>
+      <c r="EE16"/>
+      <c r="EF16"/>
+      <c r="EG16"/>
+      <c r="EH16"/>
+      <c r="EI16"/>
+      <c r="EJ16"/>
+      <c r="EK16"/>
+      <c r="EL16"/>
+      <c r="EM16"/>
+      <c r="EN16"/>
+      <c r="EO16"/>
+      <c r="EP16"/>
+      <c r="EQ16"/>
+      <c r="ER16"/>
+      <c r="ES16"/>
+      <c r="ET16"/>
+      <c r="EU16"/>
+      <c r="EV16"/>
+      <c r="EW16"/>
+      <c r="EX16"/>
+      <c r="EY16"/>
+      <c r="EZ16"/>
+      <c r="FA16"/>
+      <c r="FB16"/>
+      <c r="FC16"/>
+      <c r="FD16"/>
+      <c r="FE16"/>
+      <c r="FF16"/>
+      <c r="FG16"/>
+      <c r="FH16"/>
+      <c r="FI16"/>
+      <c r="FJ16"/>
+      <c r="FK16"/>
+      <c r="FL16"/>
+      <c r="FM16"/>
+      <c r="FN16"/>
+      <c r="FO16"/>
+      <c r="FP16"/>
+      <c r="FQ16"/>
+      <c r="FR16"/>
+      <c r="FS16"/>
+      <c r="FT16"/>
+      <c r="FU16"/>
+      <c r="FV16"/>
+      <c r="FW16"/>
+      <c r="FX16"/>
+      <c r="FY16"/>
+      <c r="FZ16"/>
+      <c r="GA16"/>
+      <c r="GB16"/>
+      <c r="GC16"/>
+      <c r="GD16"/>
+      <c r="GE16"/>
+      <c r="GF16"/>
+      <c r="GG16"/>
+      <c r="GH16"/>
+      <c r="GI16"/>
+      <c r="GJ16"/>
+      <c r="GK16"/>
+      <c r="GL16"/>
+      <c r="GM16"/>
+      <c r="GN16"/>
+      <c r="GO16"/>
+      <c r="GP16"/>
+      <c r="GQ16"/>
+      <c r="GR16"/>
+      <c r="GS16"/>
+      <c r="GT16"/>
+      <c r="GU16"/>
+      <c r="GV16"/>
+      <c r="GW16"/>
+      <c r="GX16"/>
+      <c r="GY16"/>
+      <c r="GZ16"/>
+      <c r="HA16"/>
+      <c r="HB16"/>
+      <c r="HC16"/>
+      <c r="HD16"/>
+      <c r="HE16"/>
+      <c r="HF16"/>
+      <c r="HG16"/>
+      <c r="HH16"/>
+      <c r="HI16"/>
+      <c r="HJ16"/>
+      <c r="HK16"/>
+      <c r="HL16"/>
+      <c r="HM16"/>
+      <c r="HN16"/>
+      <c r="HO16"/>
+      <c r="HP16"/>
+      <c r="HQ16"/>
+      <c r="HR16"/>
+      <c r="HS16"/>
+      <c r="HT16"/>
+      <c r="HU16"/>
+      <c r="HV16"/>
+      <c r="HW16"/>
+      <c r="HX16"/>
+      <c r="HY16"/>
+      <c r="HZ16"/>
+      <c r="IA16"/>
+      <c r="IB16"/>
+      <c r="IC16"/>
+      <c r="ID16"/>
+      <c r="IE16"/>
+      <c r="IF16"/>
+      <c r="IG16"/>
+      <c r="IH16"/>
+      <c r="II16"/>
+      <c r="IJ16"/>
+      <c r="IK16"/>
+      <c r="IL16"/>
+      <c r="IM16"/>
+      <c r="IN16"/>
+      <c r="IO16"/>
+      <c r="IP16"/>
+      <c r="IQ16"/>
+      <c r="IR16"/>
+      <c r="IS16"/>
+      <c r="IT16"/>
+      <c r="IU16"/>
+      <c r="IV16"/>
+      <c r="IW16"/>
+      <c r="IX16"/>
+      <c r="IY16"/>
+      <c r="IZ16"/>
+      <c r="JA16"/>
+      <c r="JB16"/>
+      <c r="JC16"/>
+      <c r="JD16"/>
+      <c r="JE16"/>
+      <c r="JF16"/>
+      <c r="JG16"/>
+      <c r="JH16"/>
+      <c r="JI16"/>
+      <c r="JJ16"/>
+      <c r="JK16"/>
+      <c r="JL16"/>
+      <c r="JM16"/>
+      <c r="JN16"/>
+      <c r="JO16"/>
+      <c r="JP16"/>
+      <c r="JQ16"/>
+      <c r="JR16"/>
+      <c r="JS16"/>
+      <c r="JT16"/>
+      <c r="JU16"/>
+      <c r="JV16"/>
+      <c r="JW16"/>
+      <c r="JX16"/>
+      <c r="JY16"/>
+      <c r="JZ16"/>
+      <c r="KA16"/>
+      <c r="KB16"/>
+      <c r="KC16"/>
+      <c r="KD16"/>
+      <c r="KE16"/>
+      <c r="KF16"/>
+      <c r="KG16"/>
+      <c r="KH16"/>
+      <c r="KI16"/>
+      <c r="KJ16"/>
+      <c r="KK16"/>
+      <c r="KL16"/>
+      <c r="KM16"/>
+      <c r="KN16"/>
+      <c r="KO16"/>
+      <c r="KP16"/>
+      <c r="KQ16"/>
+      <c r="KR16"/>
+      <c r="KS16"/>
+      <c r="KT16"/>
+      <c r="KU16"/>
+      <c r="KV16"/>
+      <c r="KW16"/>
+      <c r="KX16"/>
+      <c r="KY16"/>
+      <c r="KZ16"/>
+      <c r="LA16"/>
+      <c r="LB16"/>
+      <c r="LC16"/>
+      <c r="LD16"/>
+      <c r="LE16"/>
+      <c r="LF16"/>
+      <c r="LG16"/>
+      <c r="LH16"/>
+      <c r="LI16"/>
+      <c r="LJ16"/>
+      <c r="LK16"/>
+      <c r="LL16"/>
+      <c r="LM16"/>
+      <c r="LN16"/>
+      <c r="LO16"/>
+      <c r="LP16"/>
+      <c r="LQ16"/>
+      <c r="LR16"/>
+      <c r="LS16"/>
+      <c r="LT16"/>
+      <c r="LU16"/>
+      <c r="LV16"/>
+      <c r="LW16"/>
+      <c r="LX16"/>
+      <c r="LY16"/>
+      <c r="LZ16"/>
+      <c r="MA16"/>
+      <c r="MB16"/>
+      <c r="MC16"/>
+      <c r="MD16"/>
+      <c r="ME16"/>
+      <c r="MF16"/>
+      <c r="MG16"/>
+      <c r="MH16"/>
+      <c r="MI16"/>
+      <c r="MJ16"/>
+      <c r="MK16"/>
+      <c r="ML16"/>
+      <c r="MM16"/>
+      <c r="MN16"/>
+      <c r="MO16"/>
+      <c r="MP16"/>
+      <c r="MQ16"/>
+      <c r="MR16"/>
+      <c r="MS16"/>
+      <c r="MT16"/>
+      <c r="MU16"/>
+      <c r="MV16"/>
+      <c r="MW16"/>
+      <c r="MX16"/>
+      <c r="MY16"/>
+      <c r="MZ16"/>
+      <c r="NA16"/>
+      <c r="NB16"/>
+      <c r="NC16"/>
+      <c r="ND16"/>
+      <c r="NE16"/>
+      <c r="NF16"/>
+      <c r="NG16"/>
+      <c r="NH16"/>
+      <c r="NI16"/>
+      <c r="NJ16"/>
+      <c r="NK16"/>
+      <c r="NL16"/>
+      <c r="NM16"/>
+      <c r="NN16"/>
+      <c r="NO16"/>
+      <c r="NP16"/>
+      <c r="NQ16"/>
+      <c r="NR16"/>
+      <c r="NS16"/>
+      <c r="NT16"/>
+      <c r="NU16"/>
+      <c r="NV16"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1364,7 +2133,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +2141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +2149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +2157,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -1396,7 +2165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -1404,7 +2173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,7 +2181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -1420,13 +2189,397 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+      <c r="CP41"/>
+      <c r="CQ41"/>
+      <c r="CR41"/>
+      <c r="CS41"/>
+      <c r="CT41"/>
+      <c r="CU41"/>
+      <c r="CV41"/>
+      <c r="CW41"/>
+      <c r="CX41"/>
+      <c r="CY41"/>
+      <c r="CZ41"/>
+      <c r="DA41"/>
+      <c r="DB41"/>
+      <c r="DC41"/>
+      <c r="DD41"/>
+      <c r="DE41"/>
+      <c r="DF41"/>
+      <c r="DG41"/>
+      <c r="DH41"/>
+      <c r="DI41"/>
+      <c r="DJ41"/>
+      <c r="DK41"/>
+      <c r="DL41"/>
+      <c r="DM41"/>
+      <c r="DN41"/>
+      <c r="DO41"/>
+      <c r="DP41"/>
+      <c r="DQ41"/>
+      <c r="DR41"/>
+      <c r="DS41"/>
+      <c r="DT41"/>
+      <c r="DU41"/>
+      <c r="DV41"/>
+      <c r="DW41"/>
+      <c r="DX41"/>
+      <c r="DY41"/>
+      <c r="DZ41"/>
+      <c r="EA41"/>
+      <c r="EB41"/>
+      <c r="EC41"/>
+      <c r="ED41"/>
+      <c r="EE41"/>
+      <c r="EF41"/>
+      <c r="EG41"/>
+      <c r="EH41"/>
+      <c r="EI41"/>
+      <c r="EJ41"/>
+      <c r="EK41"/>
+      <c r="EL41"/>
+      <c r="EM41"/>
+      <c r="EN41"/>
+      <c r="EO41"/>
+      <c r="EP41"/>
+      <c r="EQ41"/>
+      <c r="ER41"/>
+      <c r="ES41"/>
+      <c r="ET41"/>
+      <c r="EU41"/>
+      <c r="EV41"/>
+      <c r="EW41"/>
+      <c r="EX41"/>
+      <c r="EY41"/>
+      <c r="EZ41"/>
+      <c r="FA41"/>
+      <c r="FB41"/>
+      <c r="FC41"/>
+      <c r="FD41"/>
+      <c r="FE41"/>
+      <c r="FF41"/>
+      <c r="FG41"/>
+      <c r="FH41"/>
+      <c r="FI41"/>
+      <c r="FJ41"/>
+      <c r="FK41"/>
+      <c r="FL41"/>
+      <c r="FM41"/>
+      <c r="FN41"/>
+      <c r="FO41"/>
+      <c r="FP41"/>
+      <c r="FQ41"/>
+      <c r="FR41"/>
+      <c r="FS41"/>
+      <c r="FT41"/>
+      <c r="FU41"/>
+      <c r="FV41"/>
+      <c r="FW41"/>
+      <c r="FX41"/>
+      <c r="FY41"/>
+      <c r="FZ41"/>
+      <c r="GA41"/>
+      <c r="GB41"/>
+      <c r="GC41"/>
+      <c r="GD41"/>
+      <c r="GE41"/>
+      <c r="GF41"/>
+      <c r="GG41"/>
+      <c r="GH41"/>
+      <c r="GI41"/>
+      <c r="GJ41"/>
+      <c r="GK41"/>
+      <c r="GL41"/>
+      <c r="GM41"/>
+      <c r="GN41"/>
+      <c r="GO41"/>
+      <c r="GP41"/>
+      <c r="GQ41"/>
+      <c r="GR41"/>
+      <c r="GS41"/>
+      <c r="GT41"/>
+      <c r="GU41"/>
+      <c r="GV41"/>
+      <c r="GW41"/>
+      <c r="GX41"/>
+      <c r="GY41"/>
+      <c r="GZ41"/>
+      <c r="HA41"/>
+      <c r="HB41"/>
+      <c r="HC41"/>
+      <c r="HD41"/>
+      <c r="HE41"/>
+      <c r="HF41"/>
+      <c r="HG41"/>
+      <c r="HH41"/>
+      <c r="HI41"/>
+      <c r="HJ41"/>
+      <c r="HK41"/>
+      <c r="HL41"/>
+      <c r="HM41"/>
+      <c r="HN41"/>
+      <c r="HO41"/>
+      <c r="HP41"/>
+      <c r="HQ41"/>
+      <c r="HR41"/>
+      <c r="HS41"/>
+      <c r="HT41"/>
+      <c r="HU41"/>
+      <c r="HV41"/>
+      <c r="HW41"/>
+      <c r="HX41"/>
+      <c r="HY41"/>
+      <c r="HZ41"/>
+      <c r="IA41"/>
+      <c r="IB41"/>
+      <c r="IC41"/>
+      <c r="ID41"/>
+      <c r="IE41"/>
+      <c r="IF41"/>
+      <c r="IG41"/>
+      <c r="IH41"/>
+      <c r="II41"/>
+      <c r="IJ41"/>
+      <c r="IK41"/>
+      <c r="IL41"/>
+      <c r="IM41"/>
+      <c r="IN41"/>
+      <c r="IO41"/>
+      <c r="IP41"/>
+      <c r="IQ41"/>
+      <c r="IR41"/>
+      <c r="IS41"/>
+      <c r="IT41"/>
+      <c r="IU41"/>
+      <c r="IV41"/>
+      <c r="IW41"/>
+      <c r="IX41"/>
+      <c r="IY41"/>
+      <c r="IZ41"/>
+      <c r="JA41"/>
+      <c r="JB41"/>
+      <c r="JC41"/>
+      <c r="JD41"/>
+      <c r="JE41"/>
+      <c r="JF41"/>
+      <c r="JG41"/>
+      <c r="JH41"/>
+      <c r="JI41"/>
+      <c r="JJ41"/>
+      <c r="JK41"/>
+      <c r="JL41"/>
+      <c r="JM41"/>
+      <c r="JN41"/>
+      <c r="JO41"/>
+      <c r="JP41"/>
+      <c r="JQ41"/>
+      <c r="JR41"/>
+      <c r="JS41"/>
+      <c r="JT41"/>
+      <c r="JU41"/>
+      <c r="JV41"/>
+      <c r="JW41"/>
+      <c r="JX41"/>
+      <c r="JY41"/>
+      <c r="JZ41"/>
+      <c r="KA41"/>
+      <c r="KB41"/>
+      <c r="KC41"/>
+      <c r="KD41"/>
+      <c r="KE41"/>
+      <c r="KF41"/>
+      <c r="KG41"/>
+      <c r="KH41"/>
+      <c r="KI41"/>
+      <c r="KJ41"/>
+      <c r="KK41"/>
+      <c r="KL41"/>
+      <c r="KM41"/>
+      <c r="KN41"/>
+      <c r="KO41"/>
+      <c r="KP41"/>
+      <c r="KQ41"/>
+      <c r="KR41"/>
+      <c r="KS41"/>
+      <c r="KT41"/>
+      <c r="KU41"/>
+      <c r="KV41"/>
+      <c r="KW41"/>
+      <c r="KX41"/>
+      <c r="KY41"/>
+      <c r="KZ41"/>
+      <c r="LA41"/>
+      <c r="LB41"/>
+      <c r="LC41"/>
+      <c r="LD41"/>
+      <c r="LE41"/>
+      <c r="LF41"/>
+      <c r="LG41"/>
+      <c r="LH41"/>
+      <c r="LI41"/>
+      <c r="LJ41"/>
+      <c r="LK41"/>
+      <c r="LL41"/>
+      <c r="LM41"/>
+      <c r="LN41"/>
+      <c r="LO41"/>
+      <c r="LP41"/>
+      <c r="LQ41"/>
+      <c r="LR41"/>
+      <c r="LS41"/>
+      <c r="LT41"/>
+      <c r="LU41"/>
+      <c r="LV41"/>
+      <c r="LW41"/>
+      <c r="LX41"/>
+      <c r="LY41"/>
+      <c r="LZ41"/>
+      <c r="MA41"/>
+      <c r="MB41"/>
+      <c r="MC41"/>
+      <c r="MD41"/>
+      <c r="ME41"/>
+      <c r="MF41"/>
+      <c r="MG41"/>
+      <c r="MH41"/>
+      <c r="MI41"/>
+      <c r="MJ41"/>
+      <c r="MK41"/>
+      <c r="ML41"/>
+      <c r="MM41"/>
+      <c r="MN41"/>
+      <c r="MO41"/>
+      <c r="MP41"/>
+      <c r="MQ41"/>
+      <c r="MR41"/>
+      <c r="MS41"/>
+      <c r="MT41"/>
+      <c r="MU41"/>
+      <c r="MV41"/>
+      <c r="MW41"/>
+      <c r="MX41"/>
+      <c r="MY41"/>
+      <c r="MZ41"/>
+      <c r="NA41"/>
+      <c r="NB41"/>
+      <c r="NC41"/>
+      <c r="ND41"/>
+      <c r="NE41"/>
+      <c r="NF41"/>
+      <c r="NG41"/>
+      <c r="NH41"/>
+      <c r="NI41"/>
+      <c r="NJ41"/>
+      <c r="NK41"/>
+      <c r="NL41"/>
+      <c r="NM41"/>
+      <c r="NN41"/>
+      <c r="NO41"/>
+      <c r="NP41"/>
+      <c r="NQ41"/>
+      <c r="NR41"/>
+      <c r="NS41"/>
+      <c r="NT41"/>
+      <c r="NU41"/>
+      <c r="NV41"/>
+    </row>
+    <row r="42" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +2587,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1442,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>6</v>
       </c>
@@ -1450,7 +2603,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +2611,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -1466,7 +2619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
@@ -1474,7 +2627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,7 +2635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>16</v>
       </c>
@@ -1490,7 +2643,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +2651,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +2659,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
@@ -1514,7 +2667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +2675,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,13 +2683,397 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56"/>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+      <c r="BY56"/>
+      <c r="BZ56"/>
+      <c r="CA56"/>
+      <c r="CB56"/>
+      <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
+      <c r="CI56"/>
+      <c r="CJ56"/>
+      <c r="CK56"/>
+      <c r="CL56"/>
+      <c r="CM56"/>
+      <c r="CN56"/>
+      <c r="CO56"/>
+      <c r="CP56"/>
+      <c r="CQ56"/>
+      <c r="CR56"/>
+      <c r="CS56"/>
+      <c r="CT56"/>
+      <c r="CU56"/>
+      <c r="CV56"/>
+      <c r="CW56"/>
+      <c r="CX56"/>
+      <c r="CY56"/>
+      <c r="CZ56"/>
+      <c r="DA56"/>
+      <c r="DB56"/>
+      <c r="DC56"/>
+      <c r="DD56"/>
+      <c r="DE56"/>
+      <c r="DF56"/>
+      <c r="DG56"/>
+      <c r="DH56"/>
+      <c r="DI56"/>
+      <c r="DJ56"/>
+      <c r="DK56"/>
+      <c r="DL56"/>
+      <c r="DM56"/>
+      <c r="DN56"/>
+      <c r="DO56"/>
+      <c r="DP56"/>
+      <c r="DQ56"/>
+      <c r="DR56"/>
+      <c r="DS56"/>
+      <c r="DT56"/>
+      <c r="DU56"/>
+      <c r="DV56"/>
+      <c r="DW56"/>
+      <c r="DX56"/>
+      <c r="DY56"/>
+      <c r="DZ56"/>
+      <c r="EA56"/>
+      <c r="EB56"/>
+      <c r="EC56"/>
+      <c r="ED56"/>
+      <c r="EE56"/>
+      <c r="EF56"/>
+      <c r="EG56"/>
+      <c r="EH56"/>
+      <c r="EI56"/>
+      <c r="EJ56"/>
+      <c r="EK56"/>
+      <c r="EL56"/>
+      <c r="EM56"/>
+      <c r="EN56"/>
+      <c r="EO56"/>
+      <c r="EP56"/>
+      <c r="EQ56"/>
+      <c r="ER56"/>
+      <c r="ES56"/>
+      <c r="ET56"/>
+      <c r="EU56"/>
+      <c r="EV56"/>
+      <c r="EW56"/>
+      <c r="EX56"/>
+      <c r="EY56"/>
+      <c r="EZ56"/>
+      <c r="FA56"/>
+      <c r="FB56"/>
+      <c r="FC56"/>
+      <c r="FD56"/>
+      <c r="FE56"/>
+      <c r="FF56"/>
+      <c r="FG56"/>
+      <c r="FH56"/>
+      <c r="FI56"/>
+      <c r="FJ56"/>
+      <c r="FK56"/>
+      <c r="FL56"/>
+      <c r="FM56"/>
+      <c r="FN56"/>
+      <c r="FO56"/>
+      <c r="FP56"/>
+      <c r="FQ56"/>
+      <c r="FR56"/>
+      <c r="FS56"/>
+      <c r="FT56"/>
+      <c r="FU56"/>
+      <c r="FV56"/>
+      <c r="FW56"/>
+      <c r="FX56"/>
+      <c r="FY56"/>
+      <c r="FZ56"/>
+      <c r="GA56"/>
+      <c r="GB56"/>
+      <c r="GC56"/>
+      <c r="GD56"/>
+      <c r="GE56"/>
+      <c r="GF56"/>
+      <c r="GG56"/>
+      <c r="GH56"/>
+      <c r="GI56"/>
+      <c r="GJ56"/>
+      <c r="GK56"/>
+      <c r="GL56"/>
+      <c r="GM56"/>
+      <c r="GN56"/>
+      <c r="GO56"/>
+      <c r="GP56"/>
+      <c r="GQ56"/>
+      <c r="GR56"/>
+      <c r="GS56"/>
+      <c r="GT56"/>
+      <c r="GU56"/>
+      <c r="GV56"/>
+      <c r="GW56"/>
+      <c r="GX56"/>
+      <c r="GY56"/>
+      <c r="GZ56"/>
+      <c r="HA56"/>
+      <c r="HB56"/>
+      <c r="HC56"/>
+      <c r="HD56"/>
+      <c r="HE56"/>
+      <c r="HF56"/>
+      <c r="HG56"/>
+      <c r="HH56"/>
+      <c r="HI56"/>
+      <c r="HJ56"/>
+      <c r="HK56"/>
+      <c r="HL56"/>
+      <c r="HM56"/>
+      <c r="HN56"/>
+      <c r="HO56"/>
+      <c r="HP56"/>
+      <c r="HQ56"/>
+      <c r="HR56"/>
+      <c r="HS56"/>
+      <c r="HT56"/>
+      <c r="HU56"/>
+      <c r="HV56"/>
+      <c r="HW56"/>
+      <c r="HX56"/>
+      <c r="HY56"/>
+      <c r="HZ56"/>
+      <c r="IA56"/>
+      <c r="IB56"/>
+      <c r="IC56"/>
+      <c r="ID56"/>
+      <c r="IE56"/>
+      <c r="IF56"/>
+      <c r="IG56"/>
+      <c r="IH56"/>
+      <c r="II56"/>
+      <c r="IJ56"/>
+      <c r="IK56"/>
+      <c r="IL56"/>
+      <c r="IM56"/>
+      <c r="IN56"/>
+      <c r="IO56"/>
+      <c r="IP56"/>
+      <c r="IQ56"/>
+      <c r="IR56"/>
+      <c r="IS56"/>
+      <c r="IT56"/>
+      <c r="IU56"/>
+      <c r="IV56"/>
+      <c r="IW56"/>
+      <c r="IX56"/>
+      <c r="IY56"/>
+      <c r="IZ56"/>
+      <c r="JA56"/>
+      <c r="JB56"/>
+      <c r="JC56"/>
+      <c r="JD56"/>
+      <c r="JE56"/>
+      <c r="JF56"/>
+      <c r="JG56"/>
+      <c r="JH56"/>
+      <c r="JI56"/>
+      <c r="JJ56"/>
+      <c r="JK56"/>
+      <c r="JL56"/>
+      <c r="JM56"/>
+      <c r="JN56"/>
+      <c r="JO56"/>
+      <c r="JP56"/>
+      <c r="JQ56"/>
+      <c r="JR56"/>
+      <c r="JS56"/>
+      <c r="JT56"/>
+      <c r="JU56"/>
+      <c r="JV56"/>
+      <c r="JW56"/>
+      <c r="JX56"/>
+      <c r="JY56"/>
+      <c r="JZ56"/>
+      <c r="KA56"/>
+      <c r="KB56"/>
+      <c r="KC56"/>
+      <c r="KD56"/>
+      <c r="KE56"/>
+      <c r="KF56"/>
+      <c r="KG56"/>
+      <c r="KH56"/>
+      <c r="KI56"/>
+      <c r="KJ56"/>
+      <c r="KK56"/>
+      <c r="KL56"/>
+      <c r="KM56"/>
+      <c r="KN56"/>
+      <c r="KO56"/>
+      <c r="KP56"/>
+      <c r="KQ56"/>
+      <c r="KR56"/>
+      <c r="KS56"/>
+      <c r="KT56"/>
+      <c r="KU56"/>
+      <c r="KV56"/>
+      <c r="KW56"/>
+      <c r="KX56"/>
+      <c r="KY56"/>
+      <c r="KZ56"/>
+      <c r="LA56"/>
+      <c r="LB56"/>
+      <c r="LC56"/>
+      <c r="LD56"/>
+      <c r="LE56"/>
+      <c r="LF56"/>
+      <c r="LG56"/>
+      <c r="LH56"/>
+      <c r="LI56"/>
+      <c r="LJ56"/>
+      <c r="LK56"/>
+      <c r="LL56"/>
+      <c r="LM56"/>
+      <c r="LN56"/>
+      <c r="LO56"/>
+      <c r="LP56"/>
+      <c r="LQ56"/>
+      <c r="LR56"/>
+      <c r="LS56"/>
+      <c r="LT56"/>
+      <c r="LU56"/>
+      <c r="LV56"/>
+      <c r="LW56"/>
+      <c r="LX56"/>
+      <c r="LY56"/>
+      <c r="LZ56"/>
+      <c r="MA56"/>
+      <c r="MB56"/>
+      <c r="MC56"/>
+      <c r="MD56"/>
+      <c r="ME56"/>
+      <c r="MF56"/>
+      <c r="MG56"/>
+      <c r="MH56"/>
+      <c r="MI56"/>
+      <c r="MJ56"/>
+      <c r="MK56"/>
+      <c r="ML56"/>
+      <c r="MM56"/>
+      <c r="MN56"/>
+      <c r="MO56"/>
+      <c r="MP56"/>
+      <c r="MQ56"/>
+      <c r="MR56"/>
+      <c r="MS56"/>
+      <c r="MT56"/>
+      <c r="MU56"/>
+      <c r="MV56"/>
+      <c r="MW56"/>
+      <c r="MX56"/>
+      <c r="MY56"/>
+      <c r="MZ56"/>
+      <c r="NA56"/>
+      <c r="NB56"/>
+      <c r="NC56"/>
+      <c r="ND56"/>
+      <c r="NE56"/>
+      <c r="NF56"/>
+      <c r="NG56"/>
+      <c r="NH56"/>
+      <c r="NI56"/>
+      <c r="NJ56"/>
+      <c r="NK56"/>
+      <c r="NL56"/>
+      <c r="NM56"/>
+      <c r="NN56"/>
+      <c r="NO56"/>
+      <c r="NP56"/>
+      <c r="NQ56"/>
+      <c r="NR56"/>
+      <c r="NS56"/>
+      <c r="NT56"/>
+      <c r="NU56"/>
+      <c r="NV56"/>
+    </row>
+    <row r="57" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +3081,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +3089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>6</v>
       </c>
@@ -1560,7 +3097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>8</v>
       </c>
@@ -1568,7 +3105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +3113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +3121,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +3129,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>16</v>
       </c>
@@ -1600,7 +3137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -1608,7 +3145,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
@@ -1616,7 +3153,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +3161,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -1632,7 +3169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,13 +3177,397 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+      <c r="AL71"/>
+      <c r="AM71"/>
+      <c r="AN71"/>
+      <c r="AO71"/>
+      <c r="AP71"/>
+      <c r="AQ71"/>
+      <c r="AR71"/>
+      <c r="AS71"/>
+      <c r="AT71"/>
+      <c r="AU71"/>
+      <c r="AV71"/>
+      <c r="AW71"/>
+      <c r="AX71"/>
+      <c r="AY71"/>
+      <c r="AZ71"/>
+      <c r="BA71"/>
+      <c r="BB71"/>
+      <c r="BC71"/>
+      <c r="BD71"/>
+      <c r="BE71"/>
+      <c r="BF71"/>
+      <c r="BG71"/>
+      <c r="BH71"/>
+      <c r="BI71"/>
+      <c r="BJ71"/>
+      <c r="BK71"/>
+      <c r="BL71"/>
+      <c r="BM71"/>
+      <c r="BN71"/>
+      <c r="BO71"/>
+      <c r="BP71"/>
+      <c r="BQ71"/>
+      <c r="BR71"/>
+      <c r="BS71"/>
+      <c r="BT71"/>
+      <c r="BU71"/>
+      <c r="BV71"/>
+      <c r="BW71"/>
+      <c r="BX71"/>
+      <c r="BY71"/>
+      <c r="BZ71"/>
+      <c r="CA71"/>
+      <c r="CB71"/>
+      <c r="CC71"/>
+      <c r="CD71"/>
+      <c r="CE71"/>
+      <c r="CF71"/>
+      <c r="CG71"/>
+      <c r="CH71"/>
+      <c r="CI71"/>
+      <c r="CJ71"/>
+      <c r="CK71"/>
+      <c r="CL71"/>
+      <c r="CM71"/>
+      <c r="CN71"/>
+      <c r="CO71"/>
+      <c r="CP71"/>
+      <c r="CQ71"/>
+      <c r="CR71"/>
+      <c r="CS71"/>
+      <c r="CT71"/>
+      <c r="CU71"/>
+      <c r="CV71"/>
+      <c r="CW71"/>
+      <c r="CX71"/>
+      <c r="CY71"/>
+      <c r="CZ71"/>
+      <c r="DA71"/>
+      <c r="DB71"/>
+      <c r="DC71"/>
+      <c r="DD71"/>
+      <c r="DE71"/>
+      <c r="DF71"/>
+      <c r="DG71"/>
+      <c r="DH71"/>
+      <c r="DI71"/>
+      <c r="DJ71"/>
+      <c r="DK71"/>
+      <c r="DL71"/>
+      <c r="DM71"/>
+      <c r="DN71"/>
+      <c r="DO71"/>
+      <c r="DP71"/>
+      <c r="DQ71"/>
+      <c r="DR71"/>
+      <c r="DS71"/>
+      <c r="DT71"/>
+      <c r="DU71"/>
+      <c r="DV71"/>
+      <c r="DW71"/>
+      <c r="DX71"/>
+      <c r="DY71"/>
+      <c r="DZ71"/>
+      <c r="EA71"/>
+      <c r="EB71"/>
+      <c r="EC71"/>
+      <c r="ED71"/>
+      <c r="EE71"/>
+      <c r="EF71"/>
+      <c r="EG71"/>
+      <c r="EH71"/>
+      <c r="EI71"/>
+      <c r="EJ71"/>
+      <c r="EK71"/>
+      <c r="EL71"/>
+      <c r="EM71"/>
+      <c r="EN71"/>
+      <c r="EO71"/>
+      <c r="EP71"/>
+      <c r="EQ71"/>
+      <c r="ER71"/>
+      <c r="ES71"/>
+      <c r="ET71"/>
+      <c r="EU71"/>
+      <c r="EV71"/>
+      <c r="EW71"/>
+      <c r="EX71"/>
+      <c r="EY71"/>
+      <c r="EZ71"/>
+      <c r="FA71"/>
+      <c r="FB71"/>
+      <c r="FC71"/>
+      <c r="FD71"/>
+      <c r="FE71"/>
+      <c r="FF71"/>
+      <c r="FG71"/>
+      <c r="FH71"/>
+      <c r="FI71"/>
+      <c r="FJ71"/>
+      <c r="FK71"/>
+      <c r="FL71"/>
+      <c r="FM71"/>
+      <c r="FN71"/>
+      <c r="FO71"/>
+      <c r="FP71"/>
+      <c r="FQ71"/>
+      <c r="FR71"/>
+      <c r="FS71"/>
+      <c r="FT71"/>
+      <c r="FU71"/>
+      <c r="FV71"/>
+      <c r="FW71"/>
+      <c r="FX71"/>
+      <c r="FY71"/>
+      <c r="FZ71"/>
+      <c r="GA71"/>
+      <c r="GB71"/>
+      <c r="GC71"/>
+      <c r="GD71"/>
+      <c r="GE71"/>
+      <c r="GF71"/>
+      <c r="GG71"/>
+      <c r="GH71"/>
+      <c r="GI71"/>
+      <c r="GJ71"/>
+      <c r="GK71"/>
+      <c r="GL71"/>
+      <c r="GM71"/>
+      <c r="GN71"/>
+      <c r="GO71"/>
+      <c r="GP71"/>
+      <c r="GQ71"/>
+      <c r="GR71"/>
+      <c r="GS71"/>
+      <c r="GT71"/>
+      <c r="GU71"/>
+      <c r="GV71"/>
+      <c r="GW71"/>
+      <c r="GX71"/>
+      <c r="GY71"/>
+      <c r="GZ71"/>
+      <c r="HA71"/>
+      <c r="HB71"/>
+      <c r="HC71"/>
+      <c r="HD71"/>
+      <c r="HE71"/>
+      <c r="HF71"/>
+      <c r="HG71"/>
+      <c r="HH71"/>
+      <c r="HI71"/>
+      <c r="HJ71"/>
+      <c r="HK71"/>
+      <c r="HL71"/>
+      <c r="HM71"/>
+      <c r="HN71"/>
+      <c r="HO71"/>
+      <c r="HP71"/>
+      <c r="HQ71"/>
+      <c r="HR71"/>
+      <c r="HS71"/>
+      <c r="HT71"/>
+      <c r="HU71"/>
+      <c r="HV71"/>
+      <c r="HW71"/>
+      <c r="HX71"/>
+      <c r="HY71"/>
+      <c r="HZ71"/>
+      <c r="IA71"/>
+      <c r="IB71"/>
+      <c r="IC71"/>
+      <c r="ID71"/>
+      <c r="IE71"/>
+      <c r="IF71"/>
+      <c r="IG71"/>
+      <c r="IH71"/>
+      <c r="II71"/>
+      <c r="IJ71"/>
+      <c r="IK71"/>
+      <c r="IL71"/>
+      <c r="IM71"/>
+      <c r="IN71"/>
+      <c r="IO71"/>
+      <c r="IP71"/>
+      <c r="IQ71"/>
+      <c r="IR71"/>
+      <c r="IS71"/>
+      <c r="IT71"/>
+      <c r="IU71"/>
+      <c r="IV71"/>
+      <c r="IW71"/>
+      <c r="IX71"/>
+      <c r="IY71"/>
+      <c r="IZ71"/>
+      <c r="JA71"/>
+      <c r="JB71"/>
+      <c r="JC71"/>
+      <c r="JD71"/>
+      <c r="JE71"/>
+      <c r="JF71"/>
+      <c r="JG71"/>
+      <c r="JH71"/>
+      <c r="JI71"/>
+      <c r="JJ71"/>
+      <c r="JK71"/>
+      <c r="JL71"/>
+      <c r="JM71"/>
+      <c r="JN71"/>
+      <c r="JO71"/>
+      <c r="JP71"/>
+      <c r="JQ71"/>
+      <c r="JR71"/>
+      <c r="JS71"/>
+      <c r="JT71"/>
+      <c r="JU71"/>
+      <c r="JV71"/>
+      <c r="JW71"/>
+      <c r="JX71"/>
+      <c r="JY71"/>
+      <c r="JZ71"/>
+      <c r="KA71"/>
+      <c r="KB71"/>
+      <c r="KC71"/>
+      <c r="KD71"/>
+      <c r="KE71"/>
+      <c r="KF71"/>
+      <c r="KG71"/>
+      <c r="KH71"/>
+      <c r="KI71"/>
+      <c r="KJ71"/>
+      <c r="KK71"/>
+      <c r="KL71"/>
+      <c r="KM71"/>
+      <c r="KN71"/>
+      <c r="KO71"/>
+      <c r="KP71"/>
+      <c r="KQ71"/>
+      <c r="KR71"/>
+      <c r="KS71"/>
+      <c r="KT71"/>
+      <c r="KU71"/>
+      <c r="KV71"/>
+      <c r="KW71"/>
+      <c r="KX71"/>
+      <c r="KY71"/>
+      <c r="KZ71"/>
+      <c r="LA71"/>
+      <c r="LB71"/>
+      <c r="LC71"/>
+      <c r="LD71"/>
+      <c r="LE71"/>
+      <c r="LF71"/>
+      <c r="LG71"/>
+      <c r="LH71"/>
+      <c r="LI71"/>
+      <c r="LJ71"/>
+      <c r="LK71"/>
+      <c r="LL71"/>
+      <c r="LM71"/>
+      <c r="LN71"/>
+      <c r="LO71"/>
+      <c r="LP71"/>
+      <c r="LQ71"/>
+      <c r="LR71"/>
+      <c r="LS71"/>
+      <c r="LT71"/>
+      <c r="LU71"/>
+      <c r="LV71"/>
+      <c r="LW71"/>
+      <c r="LX71"/>
+      <c r="LY71"/>
+      <c r="LZ71"/>
+      <c r="MA71"/>
+      <c r="MB71"/>
+      <c r="MC71"/>
+      <c r="MD71"/>
+      <c r="ME71"/>
+      <c r="MF71"/>
+      <c r="MG71"/>
+      <c r="MH71"/>
+      <c r="MI71"/>
+      <c r="MJ71"/>
+      <c r="MK71"/>
+      <c r="ML71"/>
+      <c r="MM71"/>
+      <c r="MN71"/>
+      <c r="MO71"/>
+      <c r="MP71"/>
+      <c r="MQ71"/>
+      <c r="MR71"/>
+      <c r="MS71"/>
+      <c r="MT71"/>
+      <c r="MU71"/>
+      <c r="MV71"/>
+      <c r="MW71"/>
+      <c r="MX71"/>
+      <c r="MY71"/>
+      <c r="MZ71"/>
+      <c r="NA71"/>
+      <c r="NB71"/>
+      <c r="NC71"/>
+      <c r="ND71"/>
+      <c r="NE71"/>
+      <c r="NF71"/>
+      <c r="NG71"/>
+      <c r="NH71"/>
+      <c r="NI71"/>
+      <c r="NJ71"/>
+      <c r="NK71"/>
+      <c r="NL71"/>
+      <c r="NM71"/>
+      <c r="NN71"/>
+      <c r="NO71"/>
+      <c r="NP71"/>
+      <c r="NQ71"/>
+      <c r="NR71"/>
+      <c r="NS71"/>
+      <c r="NT71"/>
+      <c r="NU71"/>
+      <c r="NV71"/>
+    </row>
+    <row r="72" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>86</v>
       </c>
@@ -1654,7 +3575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>88</v>
       </c>
@@ -1662,7 +3583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>90</v>
       </c>
@@ -1670,7 +3591,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -1678,7 +3599,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>94</v>
       </c>
@@ -1686,7 +3607,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>96</v>
       </c>
@@ -1694,7 +3615,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>98</v>
       </c>
@@ -1702,7 +3623,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>100</v>
       </c>
@@ -1710,7 +3631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
@@ -2102,7 +4023,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>195</v>
       </c>
@@ -2110,7 +4031,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>197</v>
       </c>
@@ -2118,7 +4039,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>199</v>
       </c>
@@ -2126,7 +4047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>201</v>
       </c>
@@ -2134,7 +4055,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>203</v>
       </c>
@@ -2142,7 +4063,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>205</v>
       </c>
@@ -2150,7 +4071,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>207</v>
       </c>
@@ -2158,7 +4079,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>209</v>
       </c>
@@ -2166,13 +4087,397 @@
         <v>210</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+      <c r="Y138"/>
+      <c r="Z138"/>
+      <c r="AA138"/>
+      <c r="AB138"/>
+      <c r="AC138"/>
+      <c r="AD138"/>
+      <c r="AE138"/>
+      <c r="AF138"/>
+      <c r="AG138"/>
+      <c r="AH138"/>
+      <c r="AI138"/>
+      <c r="AJ138"/>
+      <c r="AK138"/>
+      <c r="AL138"/>
+      <c r="AM138"/>
+      <c r="AN138"/>
+      <c r="AO138"/>
+      <c r="AP138"/>
+      <c r="AQ138"/>
+      <c r="AR138"/>
+      <c r="AS138"/>
+      <c r="AT138"/>
+      <c r="AU138"/>
+      <c r="AV138"/>
+      <c r="AW138"/>
+      <c r="AX138"/>
+      <c r="AY138"/>
+      <c r="AZ138"/>
+      <c r="BA138"/>
+      <c r="BB138"/>
+      <c r="BC138"/>
+      <c r="BD138"/>
+      <c r="BE138"/>
+      <c r="BF138"/>
+      <c r="BG138"/>
+      <c r="BH138"/>
+      <c r="BI138"/>
+      <c r="BJ138"/>
+      <c r="BK138"/>
+      <c r="BL138"/>
+      <c r="BM138"/>
+      <c r="BN138"/>
+      <c r="BO138"/>
+      <c r="BP138"/>
+      <c r="BQ138"/>
+      <c r="BR138"/>
+      <c r="BS138"/>
+      <c r="BT138"/>
+      <c r="BU138"/>
+      <c r="BV138"/>
+      <c r="BW138"/>
+      <c r="BX138"/>
+      <c r="BY138"/>
+      <c r="BZ138"/>
+      <c r="CA138"/>
+      <c r="CB138"/>
+      <c r="CC138"/>
+      <c r="CD138"/>
+      <c r="CE138"/>
+      <c r="CF138"/>
+      <c r="CG138"/>
+      <c r="CH138"/>
+      <c r="CI138"/>
+      <c r="CJ138"/>
+      <c r="CK138"/>
+      <c r="CL138"/>
+      <c r="CM138"/>
+      <c r="CN138"/>
+      <c r="CO138"/>
+      <c r="CP138"/>
+      <c r="CQ138"/>
+      <c r="CR138"/>
+      <c r="CS138"/>
+      <c r="CT138"/>
+      <c r="CU138"/>
+      <c r="CV138"/>
+      <c r="CW138"/>
+      <c r="CX138"/>
+      <c r="CY138"/>
+      <c r="CZ138"/>
+      <c r="DA138"/>
+      <c r="DB138"/>
+      <c r="DC138"/>
+      <c r="DD138"/>
+      <c r="DE138"/>
+      <c r="DF138"/>
+      <c r="DG138"/>
+      <c r="DH138"/>
+      <c r="DI138"/>
+      <c r="DJ138"/>
+      <c r="DK138"/>
+      <c r="DL138"/>
+      <c r="DM138"/>
+      <c r="DN138"/>
+      <c r="DO138"/>
+      <c r="DP138"/>
+      <c r="DQ138"/>
+      <c r="DR138"/>
+      <c r="DS138"/>
+      <c r="DT138"/>
+      <c r="DU138"/>
+      <c r="DV138"/>
+      <c r="DW138"/>
+      <c r="DX138"/>
+      <c r="DY138"/>
+      <c r="DZ138"/>
+      <c r="EA138"/>
+      <c r="EB138"/>
+      <c r="EC138"/>
+      <c r="ED138"/>
+      <c r="EE138"/>
+      <c r="EF138"/>
+      <c r="EG138"/>
+      <c r="EH138"/>
+      <c r="EI138"/>
+      <c r="EJ138"/>
+      <c r="EK138"/>
+      <c r="EL138"/>
+      <c r="EM138"/>
+      <c r="EN138"/>
+      <c r="EO138"/>
+      <c r="EP138"/>
+      <c r="EQ138"/>
+      <c r="ER138"/>
+      <c r="ES138"/>
+      <c r="ET138"/>
+      <c r="EU138"/>
+      <c r="EV138"/>
+      <c r="EW138"/>
+      <c r="EX138"/>
+      <c r="EY138"/>
+      <c r="EZ138"/>
+      <c r="FA138"/>
+      <c r="FB138"/>
+      <c r="FC138"/>
+      <c r="FD138"/>
+      <c r="FE138"/>
+      <c r="FF138"/>
+      <c r="FG138"/>
+      <c r="FH138"/>
+      <c r="FI138"/>
+      <c r="FJ138"/>
+      <c r="FK138"/>
+      <c r="FL138"/>
+      <c r="FM138"/>
+      <c r="FN138"/>
+      <c r="FO138"/>
+      <c r="FP138"/>
+      <c r="FQ138"/>
+      <c r="FR138"/>
+      <c r="FS138"/>
+      <c r="FT138"/>
+      <c r="FU138"/>
+      <c r="FV138"/>
+      <c r="FW138"/>
+      <c r="FX138"/>
+      <c r="FY138"/>
+      <c r="FZ138"/>
+      <c r="GA138"/>
+      <c r="GB138"/>
+      <c r="GC138"/>
+      <c r="GD138"/>
+      <c r="GE138"/>
+      <c r="GF138"/>
+      <c r="GG138"/>
+      <c r="GH138"/>
+      <c r="GI138"/>
+      <c r="GJ138"/>
+      <c r="GK138"/>
+      <c r="GL138"/>
+      <c r="GM138"/>
+      <c r="GN138"/>
+      <c r="GO138"/>
+      <c r="GP138"/>
+      <c r="GQ138"/>
+      <c r="GR138"/>
+      <c r="GS138"/>
+      <c r="GT138"/>
+      <c r="GU138"/>
+      <c r="GV138"/>
+      <c r="GW138"/>
+      <c r="GX138"/>
+      <c r="GY138"/>
+      <c r="GZ138"/>
+      <c r="HA138"/>
+      <c r="HB138"/>
+      <c r="HC138"/>
+      <c r="HD138"/>
+      <c r="HE138"/>
+      <c r="HF138"/>
+      <c r="HG138"/>
+      <c r="HH138"/>
+      <c r="HI138"/>
+      <c r="HJ138"/>
+      <c r="HK138"/>
+      <c r="HL138"/>
+      <c r="HM138"/>
+      <c r="HN138"/>
+      <c r="HO138"/>
+      <c r="HP138"/>
+      <c r="HQ138"/>
+      <c r="HR138"/>
+      <c r="HS138"/>
+      <c r="HT138"/>
+      <c r="HU138"/>
+      <c r="HV138"/>
+      <c r="HW138"/>
+      <c r="HX138"/>
+      <c r="HY138"/>
+      <c r="HZ138"/>
+      <c r="IA138"/>
+      <c r="IB138"/>
+      <c r="IC138"/>
+      <c r="ID138"/>
+      <c r="IE138"/>
+      <c r="IF138"/>
+      <c r="IG138"/>
+      <c r="IH138"/>
+      <c r="II138"/>
+      <c r="IJ138"/>
+      <c r="IK138"/>
+      <c r="IL138"/>
+      <c r="IM138"/>
+      <c r="IN138"/>
+      <c r="IO138"/>
+      <c r="IP138"/>
+      <c r="IQ138"/>
+      <c r="IR138"/>
+      <c r="IS138"/>
+      <c r="IT138"/>
+      <c r="IU138"/>
+      <c r="IV138"/>
+      <c r="IW138"/>
+      <c r="IX138"/>
+      <c r="IY138"/>
+      <c r="IZ138"/>
+      <c r="JA138"/>
+      <c r="JB138"/>
+      <c r="JC138"/>
+      <c r="JD138"/>
+      <c r="JE138"/>
+      <c r="JF138"/>
+      <c r="JG138"/>
+      <c r="JH138"/>
+      <c r="JI138"/>
+      <c r="JJ138"/>
+      <c r="JK138"/>
+      <c r="JL138"/>
+      <c r="JM138"/>
+      <c r="JN138"/>
+      <c r="JO138"/>
+      <c r="JP138"/>
+      <c r="JQ138"/>
+      <c r="JR138"/>
+      <c r="JS138"/>
+      <c r="JT138"/>
+      <c r="JU138"/>
+      <c r="JV138"/>
+      <c r="JW138"/>
+      <c r="JX138"/>
+      <c r="JY138"/>
+      <c r="JZ138"/>
+      <c r="KA138"/>
+      <c r="KB138"/>
+      <c r="KC138"/>
+      <c r="KD138"/>
+      <c r="KE138"/>
+      <c r="KF138"/>
+      <c r="KG138"/>
+      <c r="KH138"/>
+      <c r="KI138"/>
+      <c r="KJ138"/>
+      <c r="KK138"/>
+      <c r="KL138"/>
+      <c r="KM138"/>
+      <c r="KN138"/>
+      <c r="KO138"/>
+      <c r="KP138"/>
+      <c r="KQ138"/>
+      <c r="KR138"/>
+      <c r="KS138"/>
+      <c r="KT138"/>
+      <c r="KU138"/>
+      <c r="KV138"/>
+      <c r="KW138"/>
+      <c r="KX138"/>
+      <c r="KY138"/>
+      <c r="KZ138"/>
+      <c r="LA138"/>
+      <c r="LB138"/>
+      <c r="LC138"/>
+      <c r="LD138"/>
+      <c r="LE138"/>
+      <c r="LF138"/>
+      <c r="LG138"/>
+      <c r="LH138"/>
+      <c r="LI138"/>
+      <c r="LJ138"/>
+      <c r="LK138"/>
+      <c r="LL138"/>
+      <c r="LM138"/>
+      <c r="LN138"/>
+      <c r="LO138"/>
+      <c r="LP138"/>
+      <c r="LQ138"/>
+      <c r="LR138"/>
+      <c r="LS138"/>
+      <c r="LT138"/>
+      <c r="LU138"/>
+      <c r="LV138"/>
+      <c r="LW138"/>
+      <c r="LX138"/>
+      <c r="LY138"/>
+      <c r="LZ138"/>
+      <c r="MA138"/>
+      <c r="MB138"/>
+      <c r="MC138"/>
+      <c r="MD138"/>
+      <c r="ME138"/>
+      <c r="MF138"/>
+      <c r="MG138"/>
+      <c r="MH138"/>
+      <c r="MI138"/>
+      <c r="MJ138"/>
+      <c r="MK138"/>
+      <c r="ML138"/>
+      <c r="MM138"/>
+      <c r="MN138"/>
+      <c r="MO138"/>
+      <c r="MP138"/>
+      <c r="MQ138"/>
+      <c r="MR138"/>
+      <c r="MS138"/>
+      <c r="MT138"/>
+      <c r="MU138"/>
+      <c r="MV138"/>
+      <c r="MW138"/>
+      <c r="MX138"/>
+      <c r="MY138"/>
+      <c r="MZ138"/>
+      <c r="NA138"/>
+      <c r="NB138"/>
+      <c r="NC138"/>
+      <c r="ND138"/>
+      <c r="NE138"/>
+      <c r="NF138"/>
+      <c r="NG138"/>
+      <c r="NH138"/>
+      <c r="NI138"/>
+      <c r="NJ138"/>
+      <c r="NK138"/>
+      <c r="NL138"/>
+      <c r="NM138"/>
+      <c r="NN138"/>
+      <c r="NO138"/>
+      <c r="NP138"/>
+      <c r="NQ138"/>
+      <c r="NR138"/>
+      <c r="NS138"/>
+      <c r="NT138"/>
+      <c r="NU138"/>
+      <c r="NV138"/>
+    </row>
+    <row r="139" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>211</v>
       </c>
@@ -2180,7 +4485,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>213</v>
       </c>
@@ -2188,7 +4493,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>215</v>
       </c>
@@ -2196,7 +4501,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>217</v>
       </c>
@@ -2204,7 +4509,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>219</v>
       </c>
@@ -2212,7 +4517,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:386" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>221</v>
       </c>
@@ -2318,12 +4623,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A138:B138"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A138:B138"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
